--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/9/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/9/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8048048048048048</v>
+        <v>0.5266526652665267</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1303.303303303303</v>
+        <v>1732.833283328333</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.007007007007007007</v>
+        <v>0.03015301530153015</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6646646646646647</v>
+        <v>0.9374937493749376</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>684.6846846846847</v>
+        <v>1010.38103810381</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>795.7957957957958</v>
+        <v>420.972097209721</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>522.5225225225225</v>
+        <v>386.8523852385238</v>
       </c>
     </row>
   </sheetData>
